--- a/Excel/FashionSuitConfig.xlsx
+++ b/Excel/FashionSuitConfig.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
-    <sheet name="定制" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,40 +26,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>admin</author>
-  </authors>
-  <commentList>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1 神圣套</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -98,7 +65,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>恶魔之力</t>
@@ -111,57 +78,6 @@
   </si>
   <si>
     <t>2006</t>
-  </si>
-  <si>
-    <t>Part</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>AttrIdList</t>
-  </si>
-  <si>
-    <t>AttrValueList</t>
-  </si>
-  <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>词条</t>
-  </si>
-  <si>
-    <t>套装</t>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>RuneId</t>
-  </si>
-  <si>
-    <t>SuitId</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>神圣怒斩</t>
-  </si>
-  <si>
-    <t>14,16,15</t>
-  </si>
-  <si>
-    <t>6,4,8</t>
-  </si>
-  <si>
-    <t>神圣噬魂</t>
   </si>
 </sst>
 </file>
@@ -174,7 +90,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,26 +101,13 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -351,17 +254,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -688,150 +580,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1154,160 +1040,160 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="9.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="4" customWidth="1"/>
-    <col min="9" max="16368" width="9" style="5"/>
-    <col min="16369" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="1" customWidth="1"/>
+    <col min="9" max="16368" width="9" style="2"/>
+    <col min="16369" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
-    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C6" s="4">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="4">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="4">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1320,479 +1206,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:XFD19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="2" customWidth="1"/>
-    <col min="10" max="12" width="12.25" customWidth="1"/>
-    <col min="13" max="16373" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:12">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:12">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C6">
-        <v>1000001</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1">
-        <v>14</v>
-      </c>
-      <c r="L6">
-        <v>10010</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C7">
-        <v>1000002</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>15</v>
-      </c>
-      <c r="L7">
-        <v>10024</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C8">
-        <v>1000003</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>16</v>
-      </c>
-      <c r="L8">
-        <v>10038</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C9">
-        <v>1000004</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>14</v>
-      </c>
-      <c r="L9">
-        <v>10010</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C10">
-        <v>1000005</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>15</v>
-      </c>
-      <c r="L10">
-        <v>10024</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C11">
-        <v>1000006</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11">
-        <v>16</v>
-      </c>
-      <c r="L11">
-        <v>10038</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="27" customHeight="1" spans="6:6">
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" customFormat="1" ht="27" customHeight="1" spans="6:6">
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="3:16384">
-      <c r="C14"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="XET14"/>
-      <c r="XEU14"/>
-      <c r="XEV14"/>
-      <c r="XEW14"/>
-      <c r="XEX14"/>
-      <c r="XEY14"/>
-      <c r="XEZ14"/>
-      <c r="XFA14"/>
-      <c r="XFB14"/>
-      <c r="XFC14"/>
-      <c r="XFD14"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="3:16384">
-      <c r="C15"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="XET15"/>
-      <c r="XEU15"/>
-      <c r="XEV15"/>
-      <c r="XEW15"/>
-      <c r="XEX15"/>
-      <c r="XEY15"/>
-      <c r="XEZ15"/>
-      <c r="XFA15"/>
-      <c r="XFB15"/>
-      <c r="XFC15"/>
-      <c r="XFD15"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="3:16384">
-      <c r="C16"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16"/>
-      <c r="G16" s="1"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="XET16"/>
-      <c r="XEU16"/>
-      <c r="XEV16"/>
-      <c r="XEW16"/>
-      <c r="XEX16"/>
-      <c r="XEY16"/>
-      <c r="XEZ16"/>
-      <c r="XFA16"/>
-      <c r="XFB16"/>
-      <c r="XFC16"/>
-      <c r="XFD16"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="3:16384">
-      <c r="C17"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17"/>
-      <c r="G17" s="1"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="XET17"/>
-      <c r="XEU17"/>
-      <c r="XEV17"/>
-      <c r="XEW17"/>
-      <c r="XEX17"/>
-      <c r="XEY17"/>
-      <c r="XEZ17"/>
-      <c r="XFA17"/>
-      <c r="XFB17"/>
-      <c r="XFC17"/>
-      <c r="XFD17"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="3:16384">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18"/>
-      <c r="G18" s="1"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="XET18"/>
-      <c r="XEU18"/>
-      <c r="XEV18"/>
-      <c r="XEW18"/>
-      <c r="XEX18"/>
-      <c r="XEY18"/>
-      <c r="XEZ18"/>
-      <c r="XFA18"/>
-      <c r="XFB18"/>
-      <c r="XFC18"/>
-      <c r="XFD18"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="3:16384">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19"/>
-      <c r="G19" s="1"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="XET19"/>
-      <c r="XEU19"/>
-      <c r="XEV19"/>
-      <c r="XEW19"/>
-      <c r="XEX19"/>
-      <c r="XEY19"/>
-      <c r="XEZ19"/>
-      <c r="XFA19"/>
-      <c r="XFB19"/>
-      <c r="XFC19"/>
-      <c r="XFD19"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 D4 E4 F4 G4 H4 I4 D5 E5 F5 G5 H5 I5 C3:C5" errorStyle="warning">
-      <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Excel/FashionSuitConfig.xlsx
+++ b/Excel/FashionSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelRow="7" outlineLevelCol="7"/>

--- a/Excel/FashionSuitConfig.xlsx
+++ b/Excel/FashionSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelRow="7" outlineLevelCol="7"/>

--- a/Excel/FashionSuitConfig.xlsx
+++ b/Excel/FashionSuitConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -78,6 +78,27 @@
   </si>
   <si>
     <t>2006</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>圣战之力</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>法神之力</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>天尊之力</t>
+  </si>
+  <si>
+    <t>2009</t>
   </si>
 </sst>
 </file>
@@ -1037,13 +1058,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
@@ -1197,6 +1218,75 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 D4 E4 F4 G4 D5 E5:G5 C3:C5" errorStyle="warning">

--- a/Excel/FashionSuitConfig.xlsx
+++ b/Excel/FashionSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -1175,7 +1175,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="3:8">
@@ -1195,7 +1195,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:8">
@@ -1215,7 +1215,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="2:8">
@@ -1238,7 +1238,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="2:8">
@@ -1261,7 +1261,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="2:8">
@@ -1284,7 +1284,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/FashionSuitConfig.xlsx
+++ b/Excel/FashionSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -80,25 +80,34 @@
     <t>2006</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>圣战之力</t>
   </si>
   <si>
-    <t>2007</t>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>法神之力</t>
   </si>
   <si>
-    <t>2008</t>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>天尊之力</t>
   </si>
   <si>
-    <t>2009</t>
+    <t>2003</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1070,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -1175,7 +1184,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="3:8">
@@ -1195,7 +1204,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:8">
@@ -1215,73 +1224,64 @@
         <v>12</v>
       </c>
       <c r="H8" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1">
         <v>15</v>

--- a/Excel/FashionSuitConfig.xlsx
+++ b/Excel/FashionSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -86,28 +86,28 @@
     <t>2002</t>
   </si>
   <si>
+    <t>法神之力</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>天尊之力</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>法神之力</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>天尊之力</t>
-  </si>
-  <si>
-    <t>2003</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -1238,13 +1238,13 @@
         <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
         <v>20</v>
-      </c>
-      <c r="H9" s="1">
-        <v>15</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="3:8">
@@ -1252,19 +1252,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="H10" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="3:8">
@@ -1272,19 +1272,19 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="1">
         <v>20</v>
-      </c>
-      <c r="H11" s="1">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
